--- a/docs/Data/quiz/e3v3/sales.xlsx
+++ b/docs/Data/quiz/e3v3/sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d14353b491619df/Desktop/Desktop/BYU-I/Courses/Math 221B/Exams/Exam Data_new/Version 3 Exams/E3_Version 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e3v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{3070F99B-5DC5-471B-84B0-204F59714359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15EFEB5D-B33E-4EAB-9A40-077BC1D3A35F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84B4BB-C2EC-4682-B899-3AD3A5B00C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29540C5A-2F1C-4E76-B30A-7182767BEA29}"/>
   </bookViews>
@@ -35,16 +35,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Sale</t>
+    <t>sale_amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -87,9 +86,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -410,7 +409,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Data/quiz/e3v3/sales.xlsx
+++ b/docs/Data/quiz/e3v3/sales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\Data\quiz\e3v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\docs\Data\quiz\e3v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84B4BB-C2EC-4682-B899-3AD3A5B00C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE1F9E-DA72-447A-B427-27B81D91234F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29540C5A-2F1C-4E76-B30A-7182767BEA29}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{29540C5A-2F1C-4E76-B30A-7182767BEA29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,171 +408,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8A5CA6-8650-4B57-B42F-7D5445B2B1AD}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>93.283119231573266</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>107.14139325331516</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>113.98962306918249</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>112.89639434097411</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>122.18093734370007</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>96.474651460391257</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>110.99335666555208</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>105.47331198777589</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>106.08246538971861</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>101.86304907890204</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>93.4540742359017</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>89.21170355497884</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>112.91050213192929</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>117.29699149576244</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>122.38032163459714</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>91.705695095461962</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>110.22880311099304</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>98.028660850004954</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>110.27414138892357</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>94.252807041300088</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>90.635933940189986</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>109.84277635317159</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>111.70781408315193</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>131.24835021549853</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>92.129068130061185</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>109.61473744761614</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>116.52903615941166</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>108.22340006515608</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>131.25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>80.02</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>121.78</v>
       </c>
